--- a/ETL Learning/aws glue.xlsx
+++ b/ETL Learning/aws glue.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="390">
   <si>
     <t xml:space="preserve">AWS GLUE LAB </t>
   </si>
@@ -4572,6 +4572,27 @@
   </si>
   <si>
     <t>These components collectively enhance your ability to create robust and efficient ETL workflows using AWS Glue. If you have any further questions or need more detailed examples, feel free to ask!</t>
+  </si>
+  <si>
+    <t>RED SHIFT CLUSTER</t>
+  </si>
+  <si>
+    <t>Awsuser2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">some erro will be there like </t>
+  </si>
+  <si>
+    <t xml:space="preserve">debugging this </t>
+  </si>
+  <si>
+    <t>useename updated</t>
+  </si>
+  <si>
+    <t>1. useename updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deleted and creating another connection as pw error </t>
   </si>
 </sst>
 </file>
@@ -4926,14 +4947,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>100011</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>466752</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>71462</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590510</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4950,8 +4971,350 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="12453937"/>
-          <a:ext cx="3705252" cy="3362350"/>
+          <a:off x="0" y="12225336"/>
+          <a:ext cx="4476710" cy="4062414"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>280987</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>65605</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4619624" y="12592050"/>
+          <a:ext cx="9263063" cy="3580330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>357648</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16649701"/>
+          <a:ext cx="8130048" cy="2400300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>18717</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="23207663"/>
+          <a:ext cx="9077325" cy="3233404"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>204788</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>57821</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="20650200"/>
+          <a:ext cx="8624888" cy="2391446"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>554528</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="26703337"/>
+          <a:ext cx="5088428" cy="3776663"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>374135</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="39647812"/>
+          <a:ext cx="8146535" cy="3581401"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>302644</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="31151513"/>
+          <a:ext cx="10018144" cy="2552700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38171</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>152417</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="33889950"/>
+          <a:ext cx="9753671" cy="2276492"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>476320</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>47641</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="36918900"/>
+          <a:ext cx="9544120" cy="2219341"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5250,10 +5613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T133"/>
+  <dimension ref="A2:W201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="O91" sqref="O91"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="R183" sqref="R183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5326,7 +5689,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -5348,55 +5711,259 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="W71" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="W72" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.45">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="W73" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="W74" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="W75" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="W76" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="W77" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="W78" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.45">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="W79" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="W80" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="81" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="W81" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="82" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="W82" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="83" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="W83" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="84" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="W84" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="85" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="W85" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="86" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="W86" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="87" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="W87" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="88" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="W88" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="89" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="W89" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="90" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="W90" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="91" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="W91" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="92" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="W92" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="93" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="W93" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="94" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="W94" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="95" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="W95" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="96" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="W96" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="97" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="W97" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="98" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="W98" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="99" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="W99" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="100" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="W100" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="101" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="W101" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="102" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="W102" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="103" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
-    </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="W103" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="104" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="W104" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="105" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="W105" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="106" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="W106" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="107" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="W107" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="109" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
     </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A170" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="178" spans="17:20" x14ac:dyDescent="0.45">
+      <c r="T178" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="179" spans="17:20" x14ac:dyDescent="0.45">
+      <c r="T179" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="190" spans="17:20" x14ac:dyDescent="0.45">
+      <c r="Q190" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A201" t="s">
+        <v>389</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
